--- a/raw_data/20200818_saline/20200818_Sensor2_Test_5.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_5.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93474B-D8A8-4260-A5C8-1EE946592341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>3970.804792</v>
+        <v>3970.8047919999999</v>
       </c>
       <c r="B2" s="1">
-        <v>1.103001</v>
+        <v>1.1030009999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.703000</v>
+        <v>-306.70299999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>3981.204906</v>
+        <v>3981.2049059999999</v>
       </c>
       <c r="G2" s="1">
-        <v>1.105890</v>
+        <v>1.10589</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.615000</v>
+        <v>-264.61500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3991.645693</v>
+        <v>3991.6456929999999</v>
       </c>
       <c r="L2" s="1">
-        <v>1.108790</v>
+        <v>1.1087899999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.463000</v>
+        <v>-202.46299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>4002.467406</v>
+        <v>4002.4674060000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.111797</v>
+        <v>1.1117969999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.427000</v>
+        <v>-184.42699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>4013.009907</v>
+        <v>4013.0099070000001</v>
       </c>
       <c r="V2" s="1">
         <v>1.114725</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.760000</v>
+        <v>1329.76</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.009000</v>
+        <v>-171.00899999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>4023.434292</v>
+        <v>4023.4342919999999</v>
       </c>
       <c r="AA2" s="1">
         <v>1.117621</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.056000</v>
+        <v>-169.05600000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>4034.335364</v>
@@ -571,28 +987,28 @@
         <v>1.120649</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.036000</v>
+        <v>-179.036</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4045.085190</v>
+        <v>4045.0851899999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.123635</v>
+        <v>1.1236349999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.320000</v>
+        <v>-209.32</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>4055.661384</v>
@@ -601,13 +1017,13 @@
         <v>1.126573</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.633000</v>
+        <v>-253.63300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>4066.419116</v>
@@ -616,28 +1032,28 @@
         <v>1.129561</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.085000</v>
+        <v>-314.08499999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>4077.113853</v>
+        <v>4077.1138529999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.132532</v>
+        <v>1.1325320000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.714000</v>
+        <v>-366.714</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>4087.731679</v>
@@ -646,362 +1062,362 @@
         <v>1.135481</v>
       </c>
       <c r="BF2" s="1">
-        <v>1529.510000</v>
+        <v>1529.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.112000</v>
+        <v>-618.11199999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>4098.767663</v>
+        <v>4098.7676629999996</v>
       </c>
       <c r="BJ2" s="1">
         <v>1.138547</v>
       </c>
       <c r="BK2" s="1">
-        <v>1681.570000</v>
+        <v>1681.57</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1070.840000</v>
+        <v>-1070.8399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>4108.790855</v>
+        <v>4108.7908550000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.141331</v>
+        <v>1.1413310000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1973.320000</v>
+        <v>1973.32</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1859.780000</v>
+        <v>-1859.78</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>4119.858052</v>
+        <v>4119.8580519999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.144405</v>
+        <v>1.1444049999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2357.930000</v>
+        <v>2357.9299999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2775.440000</v>
+        <v>-2775.44</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>4131.062678</v>
+        <v>4131.0626780000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.147517</v>
+        <v>1.1475169999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2846.370000</v>
+        <v>2846.37</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3777.820000</v>
+        <v>-3777.82</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>4141.998470</v>
+        <v>4141.9984700000005</v>
       </c>
       <c r="CD2" s="1">
         <v>1.150555</v>
       </c>
       <c r="CE2" s="1">
-        <v>4296.020000</v>
+        <v>4296.0200000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6212.970000</v>
+        <v>-6212.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>3971.161913</v>
+        <v>3971.1619129999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1.103101</v>
+        <v>1.1031010000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.940000</v>
+        <v>1243.94</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.564000</v>
+        <v>-306.56400000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>3981.901785</v>
       </c>
       <c r="G3" s="1">
-        <v>1.106084</v>
+        <v>1.1060840000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.649000</v>
+        <v>-264.649</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3992.372334</v>
+        <v>3992.3723340000001</v>
       </c>
       <c r="L3" s="1">
         <v>1.108992</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.262000</v>
+        <v>-202.262</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>4002.817119</v>
+        <v>4002.8171189999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.111894</v>
+        <v>1.1118939999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.850000</v>
+        <v>1316.85</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.385000</v>
+        <v>-184.38499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>4013.366002</v>
+        <v>4013.3660020000002</v>
       </c>
       <c r="V3" s="1">
         <v>1.114824</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.062000</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>4023.793890</v>
+        <v>4023.7938899999999</v>
       </c>
       <c r="AA3" s="1">
         <v>1.117721</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.180000</v>
+        <v>1347.18</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.031000</v>
+        <v>-169.03100000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>4035.006980</v>
+        <v>4035.0069800000001</v>
       </c>
       <c r="AF3" s="1">
         <v>1.120835</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.820000</v>
+        <v>1359.82</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.067000</v>
+        <v>-179.06700000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>4045.507998</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.123752</v>
+        <v>1.1237520000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.306000</v>
+        <v>-209.30600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>4056.097337</v>
+        <v>4056.0973370000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.126694</v>
+        <v>1.1266940000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.980000</v>
+        <v>1401.98</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.587000</v>
+        <v>-253.58699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>4066.789603</v>
+        <v>4066.7896030000002</v>
       </c>
       <c r="AU3" s="1">
         <v>1.129664</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.133000</v>
+        <v>-314.13299999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>4077.498219</v>
+        <v>4077.4982190000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>1.132638</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.732000</v>
+        <v>-366.73200000000003</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>4088.121037</v>
+        <v>4088.1210369999999</v>
       </c>
       <c r="BE3" s="1">
         <v>1.135589</v>
       </c>
       <c r="BF3" s="1">
-        <v>1529.500000</v>
+        <v>1529.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.103000</v>
+        <v>-618.10299999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>4099.192238</v>
+        <v>4099.1922379999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.138665</v>
       </c>
       <c r="BK3" s="1">
-        <v>1681.540000</v>
+        <v>1681.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1070.850000</v>
+        <v>-1070.8499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>4109.212951</v>
+        <v>4109.2129510000004</v>
       </c>
       <c r="BO3" s="1">
         <v>1.141448</v>
       </c>
       <c r="BP3" s="1">
-        <v>1973.310000</v>
+        <v>1973.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1860.030000</v>
+        <v>-1860.03</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>4120.065907</v>
+        <v>4120.0659070000002</v>
       </c>
       <c r="BT3" s="1">
         <v>1.144463</v>
       </c>
       <c r="BU3" s="1">
-        <v>2357.620000</v>
+        <v>2357.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2774.940000</v>
+        <v>-2774.94</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>4131.547269</v>
+        <v>4131.5472689999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.147652</v>
+        <v>1.1476519999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2846.430000</v>
+        <v>2846.43</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3777.070000</v>
+        <v>-3777.07</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>4142.600155</v>
+        <v>4142.6001550000001</v>
       </c>
       <c r="CD3" s="1">
         <v>1.150722</v>
       </c>
       <c r="CE3" s="1">
-        <v>4286.570000</v>
+        <v>4286.57</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6197.270000</v>
+        <v>-6197.27</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>3971.845437</v>
+        <v>3971.8454369999999</v>
       </c>
       <c r="B4" s="1">
-        <v>1.103290</v>
+        <v>1.1032900000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.242000</v>
+        <v>-306.24200000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>3982.238073</v>
@@ -1010,163 +1426,163 @@
         <v>1.106177</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.928000</v>
+        <v>-264.928</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>3992.718539</v>
       </c>
       <c r="L4" s="1">
-        <v>1.109088</v>
+        <v>1.1090880000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.414000</v>
+        <v>-202.41399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>4003.163823</v>
+        <v>4003.1638229999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.111990</v>
+        <v>1.11199</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.900000</v>
+        <v>1316.9</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.410000</v>
+        <v>-184.41</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>4014.019263</v>
+        <v>4014.0192630000001</v>
       </c>
       <c r="V4" s="1">
         <v>1.115005</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.960000</v>
+        <v>1329.96</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.979000</v>
+        <v>-170.97900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>4024.446166</v>
+        <v>4024.4461660000002</v>
       </c>
       <c r="AA4" s="1">
         <v>1.117902</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.077000</v>
+        <v>-169.077</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4035.392353</v>
+        <v>4035.3923530000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.120942</v>
+        <v>1.1209420000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.033000</v>
+        <v>-179.03299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>4045.856448</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.123849</v>
+        <v>1.1238490000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.380000</v>
+        <v>1380.38</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.305000</v>
+        <v>-209.30500000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>4056.459912</v>
+        <v>4056.4599119999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.126794</v>
+        <v>1.1267940000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.960000</v>
+        <v>1401.96</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.552000</v>
+        <v>-253.55199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>4067.153657</v>
+        <v>4067.1536569999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.129765</v>
+        <v>1.1297649999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>4077.914396</v>
+        <v>4077.9143960000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.132754</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.760000</v>
+        <v>-366.76</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>4088.541181</v>
+        <v>4088.5411810000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.135706</v>
+        <v>1.1357060000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.530000</v>
+        <v>1529.53</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.084000</v>
+        <v>-618.08399999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>4099.552334</v>
@@ -1175,13 +1591,13 @@
         <v>1.138765</v>
       </c>
       <c r="BK4" s="1">
-        <v>1681.480000</v>
+        <v>1681.48</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1070.940000</v>
+        <v>-1070.94</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>4109.623106</v>
@@ -1190,61 +1606,61 @@
         <v>1.141562</v>
       </c>
       <c r="BP4" s="1">
-        <v>1973.010000</v>
+        <v>1973.01</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1859.940000</v>
+        <v>-1859.94</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>4120.475074</v>
+        <v>4120.4750739999999</v>
       </c>
       <c r="BT4" s="1">
         <v>1.144576</v>
       </c>
       <c r="BU4" s="1">
-        <v>2357.550000</v>
+        <v>2357.5500000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2774.550000</v>
+        <v>-2774.55</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>4131.996644</v>
+        <v>4131.9966439999998</v>
       </c>
       <c r="BY4" s="1">
         <v>1.147777</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2845.890000</v>
+        <v>2845.89</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3776.760000</v>
+        <v>-3776.76</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>4143.476549</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.150966</v>
+        <v>1.1509659999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4294.490000</v>
+        <v>4294.49</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6211.280000</v>
+        <v>-6211.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>3972.189163</v>
       </c>
@@ -1252,193 +1668,193 @@
         <v>1.103386</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.200000</v>
+        <v>1244.2</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.627000</v>
+        <v>-306.62700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>3982.582296</v>
       </c>
       <c r="G5" s="1">
-        <v>1.106273</v>
+        <v>1.1062730000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.925000</v>
+        <v>-264.92500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>3993.366314</v>
+        <v>3993.3663139999999</v>
       </c>
       <c r="L5" s="1">
-        <v>1.109268</v>
+        <v>1.1092679999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.350000</v>
+        <v>-202.35</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>4003.818510</v>
+        <v>4003.8185100000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.112172</v>
+        <v>1.1121719999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.469000</v>
+        <v>-184.46899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>4014.396686</v>
       </c>
       <c r="V5" s="1">
-        <v>1.115110</v>
+        <v>1.11511</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.820000</v>
+        <v>1329.82</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.023000</v>
+        <v>-171.023</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>4024.826560</v>
+        <v>4024.82656</v>
       </c>
       <c r="AA5" s="1">
         <v>1.118007</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.960000</v>
+        <v>1346.96</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.189000</v>
+        <v>-169.18899999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>4035.735074</v>
+        <v>4035.7350740000002</v>
       </c>
       <c r="AF5" s="1">
         <v>1.121038</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.870000</v>
+        <v>1359.87</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.044000</v>
+        <v>-179.04400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4046.206117</v>
+        <v>4046.2061170000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.123946</v>
+        <v>1.1239459999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.277000</v>
+        <v>-209.27699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>4056.815542</v>
+        <v>4056.8155419999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.126893</v>
+        <v>1.1268929999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.598000</v>
+        <v>-253.59800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>4067.563385</v>
+        <v>4067.5633849999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.129879</v>
+        <v>1.1298790000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.112000</v>
+        <v>-314.11200000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4078.211466</v>
+        <v>4078.2114660000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.132837</v>
+        <v>1.1328370000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.713000</v>
+        <v>-366.71300000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>4088.842716</v>
+        <v>4088.8427160000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.135790</v>
+        <v>1.1357900000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1529.480000</v>
+        <v>1529.48</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.034000</v>
+        <v>-618.03399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>4099.924829</v>
+        <v>4099.9248289999996</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.138868</v>
       </c>
       <c r="BK5" s="1">
-        <v>1681.480000</v>
+        <v>1681.48</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1070.870000</v>
+        <v>-1070.8699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>4110.039248</v>
@@ -1447,150 +1863,150 @@
         <v>1.141678</v>
       </c>
       <c r="BP5" s="1">
-        <v>1972.980000</v>
+        <v>1972.98</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1859.970000</v>
+        <v>-1859.97</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>4120.908082</v>
+        <v>4120.9080819999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.144697</v>
+        <v>1.1446970000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2358.110000</v>
+        <v>2358.11</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2773.870000</v>
+        <v>-2773.87</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>4132.418738</v>
+        <v>4132.4187380000003</v>
       </c>
       <c r="BY5" s="1">
         <v>1.147894</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2845.900000</v>
+        <v>2845.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3777.100000</v>
+        <v>-3777.1</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>4143.681428</v>
+        <v>4143.6814279999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.151023</v>
+        <v>1.1510229999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4294.820000</v>
+        <v>4294.82</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6213.560000</v>
+        <v>-6213.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>3972.531108</v>
+        <v>3972.5311080000001</v>
       </c>
       <c r="B6" s="1">
-        <v>1.103481</v>
+        <v>1.1034809999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.400000</v>
+        <v>1244.4000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.484000</v>
+        <v>-306.48399999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3983.228088</v>
+        <v>3983.2280879999998</v>
       </c>
       <c r="G6" s="1">
         <v>1.106452</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.900000</v>
+        <v>1269.9000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.879000</v>
+        <v>-264.87900000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>3993.752730</v>
+        <v>3993.7527300000002</v>
       </c>
       <c r="L6" s="1">
-        <v>1.109376</v>
+        <v>1.1093759999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.780000</v>
+        <v>1304.78</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.006000</v>
+        <v>-203.006</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>4004.211681</v>
+        <v>4004.2116810000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.112281</v>
+        <v>1.1122810000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.800000</v>
+        <v>1316.8</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.424000</v>
+        <v>-184.42400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>4014.747886</v>
+        <v>4014.7478860000001</v>
       </c>
       <c r="V6" s="1">
         <v>1.115208</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.947000</v>
+        <v>-170.947</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>4025.188146</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.118108</v>
+        <v>1.1181080000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.060000</v>
+        <v>1347.06</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.033000</v>
+        <v>-169.03299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>4036.085286</v>
@@ -1599,195 +2015,195 @@
         <v>1.121135</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.046000</v>
+        <v>-179.04599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4046.626724</v>
+        <v>4046.6267240000002</v>
       </c>
       <c r="AK6" s="1">
         <v>1.124063</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.260000</v>
+        <v>-209.26</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>4057.238630</v>
+        <v>4057.2386299999998</v>
       </c>
       <c r="AP6" s="1">
         <v>1.127011</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.940000</v>
+        <v>1401.94</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.551000</v>
+        <v>-253.55099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>4067.882810</v>
+        <v>4067.8828100000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.129967</v>
+        <v>1.1299669999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.109000</v>
+        <v>-314.10899999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>4078.573547</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.132937</v>
+        <v>1.1329370000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.460000</v>
+        <v>1445.46</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.748000</v>
+        <v>-366.74799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>4089.203308</v>
+        <v>4089.2033080000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.135890</v>
+        <v>1.1358900000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1529.510000</v>
+        <v>1529.51</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.108000</v>
+        <v>-618.10799999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>4100.301293</v>
+        <v>4100.3012930000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.138973</v>
       </c>
       <c r="BK6" s="1">
-        <v>1681.420000</v>
+        <v>1681.42</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1070.900000</v>
+        <v>-1070.9000000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>4110.849711</v>
+        <v>4110.8497109999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.141903</v>
+        <v>1.1419029999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1973.030000</v>
+        <v>1973.03</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1859.920000</v>
+        <v>-1859.92</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>4121.335137</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.144815</v>
+        <v>1.1448149999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2357.690000</v>
+        <v>2357.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2773.330000</v>
+        <v>-2773.33</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>4132.842322</v>
+        <v>4132.8423220000004</v>
       </c>
       <c r="BY6" s="1">
         <v>1.148012</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2845.570000</v>
+        <v>2845.57</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3777.440000</v>
+        <v>-3777.44</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>4144.202197</v>
+        <v>4144.2021969999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.151167</v>
+        <v>1.1511670000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4290.480000</v>
+        <v>4290.4799999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6196.060000</v>
+        <v>-6196.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>3973.170245</v>
+        <v>3973.1702449999998</v>
       </c>
       <c r="B7" s="1">
         <v>1.103658</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.550000</v>
+        <v>1244.55</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.274000</v>
+        <v>-306.274</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3983.615960</v>
+        <v>3983.6159600000001</v>
       </c>
       <c r="G7" s="1">
-        <v>1.106560</v>
+        <v>1.10656</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.600000</v>
+        <v>-264.60000000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>3994.098943</v>
@@ -1796,1101 +2212,1101 @@
         <v>1.109472</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.370000</v>
+        <v>1305.3699999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.257000</v>
+        <v>-202.25700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>4004.558540</v>
+        <v>4004.55854</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.112377</v>
+        <v>1.1123769999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.423000</v>
+        <v>-184.423</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>4015.086126</v>
+        <v>4015.0861260000001</v>
       </c>
       <c r="V7" s="1">
         <v>1.115302</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.011000</v>
+        <v>-171.011</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>4025.550721</v>
+        <v>4025.5507210000001</v>
       </c>
       <c r="AA7" s="1">
         <v>1.118209</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.000000</v>
+        <v>1347</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.029000</v>
+        <v>-169.029</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>4036.498947</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.121250</v>
+        <v>1.1212500000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.017000</v>
+        <v>-179.017</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4046.906467</v>
+        <v>4046.9064669999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.124141</v>
+        <v>1.1241410000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.287000</v>
+        <v>-209.28700000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>4057.538710</v>
+        <v>4057.5387099999998</v>
       </c>
       <c r="AP7" s="1">
         <v>1.127094</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.553000</v>
+        <v>-253.553</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>4068.246871</v>
+        <v>4068.2468709999998</v>
       </c>
       <c r="AU7" s="1">
         <v>1.130069</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.350000</v>
+        <v>1426.35</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.125000</v>
+        <v>-314.125</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4078.922729</v>
+        <v>4078.9227289999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.133034</v>
+        <v>1.1330340000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.728000</v>
+        <v>-366.72800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>4089.565387</v>
+        <v>4089.5653870000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.135990</v>
+        <v>1.1359900000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.520000</v>
+        <v>1529.52</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.053000</v>
+        <v>-618.053</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>4100.711980</v>
+        <v>4100.71198</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.139087</v>
       </c>
       <c r="BK7" s="1">
-        <v>1681.470000</v>
+        <v>1681.47</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1070.850000</v>
+        <v>-1070.8499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>4111.268697</v>
+        <v>4111.2686970000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.142019</v>
+        <v>1.1420189999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1973.140000</v>
+        <v>1973.14</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1859.910000</v>
+        <v>-1859.91</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>4121.747346</v>
+        <v>4121.7473460000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.144930</v>
+        <v>1.14493</v>
       </c>
       <c r="BU7" s="1">
-        <v>2358.520000</v>
+        <v>2358.52</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2772.960000</v>
+        <v>-2772.96</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>4133.265906</v>
+        <v>4133.2659059999996</v>
       </c>
       <c r="BY7" s="1">
         <v>1.148129</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2846.180000</v>
+        <v>2846.18</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3777.620000</v>
+        <v>-3777.62</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>4145.019106</v>
+        <v>4145.0191059999997</v>
       </c>
       <c r="CD7" s="1">
         <v>1.151394</v>
       </c>
       <c r="CE7" s="1">
-        <v>4273.700000</v>
+        <v>4273.7</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6204.070000</v>
+        <v>-6204.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>3973.555109</v>
+        <v>3973.5551089999999</v>
       </c>
       <c r="B8" s="1">
-        <v>1.103765</v>
+        <v>1.1037650000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.405000</v>
+        <v>-306.40499999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>3983.959687</v>
       </c>
       <c r="G8" s="1">
-        <v>1.106655</v>
+        <v>1.1066549999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.379000</v>
+        <v>-264.37900000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>3994.446105</v>
       </c>
       <c r="L8" s="1">
-        <v>1.109568</v>
+        <v>1.1095680000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.800000</v>
+        <v>1304.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.259000</v>
+        <v>-202.25899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>4004.908252</v>
+        <v>4004.9082520000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.112475</v>
+        <v>1.1124750000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.830000</v>
+        <v>1316.83</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.427000</v>
+        <v>-184.42699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>4015.507726</v>
+        <v>4015.5077259999998</v>
       </c>
       <c r="V8" s="1">
-        <v>1.115419</v>
+        <v>1.1154189999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.041000</v>
+        <v>-171.041</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4026.249584</v>
+        <v>4026.2495840000001</v>
       </c>
       <c r="AA8" s="1">
         <v>1.118403</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.180000</v>
+        <v>1347.18</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.118000</v>
+        <v>-169.11799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>4036.787122</v>
+        <v>4036.7871220000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.121330</v>
+        <v>1.1213299999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.820000</v>
+        <v>1359.82</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.071000</v>
+        <v>-179.071</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>4047.254668</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.124237</v>
+        <v>1.1242369999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.298000</v>
+        <v>-209.298</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>4057.903269</v>
+        <v>4057.9032689999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.127195</v>
+        <v>1.1271949999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.960000</v>
+        <v>1401.96</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.563000</v>
+        <v>-253.56299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>4068.611895</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.130170</v>
+        <v>1.1301699999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.115000</v>
+        <v>-314.11500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>4079.659817</v>
+        <v>4079.6598170000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.133239</v>
+        <v>1.1332390000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.739000</v>
+        <v>-366.73899999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>4090.285610</v>
+        <v>4090.2856099999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.136190</v>
+        <v>1.13619</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.510000</v>
+        <v>1529.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.003000</v>
+        <v>-618.00300000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>4101.076045</v>
+        <v>4101.0760449999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.139188</v>
+        <v>1.1391880000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1681.410000</v>
+        <v>1681.41</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1070.850000</v>
+        <v>-1070.8499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>4111.664142</v>
+        <v>4111.6641419999996</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.142129</v>
+        <v>1.1421289999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1972.880000</v>
+        <v>1972.88</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1859.850000</v>
+        <v>-1859.85</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>4122.180816</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.145050</v>
+        <v>1.1450499999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2358.500000</v>
+        <v>2358.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2772.350000</v>
+        <v>-2772.35</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>4133.987617</v>
+        <v>4133.9876169999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.148330</v>
+        <v>1.1483300000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2845.670000</v>
+        <v>2845.67</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3776.760000</v>
+        <v>-3776.76</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>4145.239331</v>
+        <v>4145.2393309999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.151455</v>
+        <v>1.1514549999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4284.390000</v>
+        <v>4284.3900000000003</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6218.690000</v>
+        <v>-6218.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>3973.894372</v>
+        <v>3973.8943720000002</v>
       </c>
       <c r="B9" s="1">
-        <v>1.103860</v>
+        <v>1.1038600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.420000</v>
+        <v>1244.42</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.384000</v>
+        <v>-306.38400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3984.305894</v>
+        <v>3984.3058940000001</v>
       </c>
       <c r="G9" s="1">
         <v>1.106752</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.716000</v>
+        <v>-264.71600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3994.876168</v>
+        <v>3994.8761679999998</v>
       </c>
       <c r="L9" s="1">
         <v>1.109688</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.508000</v>
+        <v>-202.50800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4005.327352</v>
+        <v>4005.3273519999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.112591</v>
+        <v>1.1125910000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.423000</v>
+        <v>-184.423</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>4015.785517</v>
+        <v>4015.7855169999998</v>
       </c>
       <c r="V9" s="1">
         <v>1.115496</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.081000</v>
+        <v>-171.08099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>4026.598766</v>
+        <v>4026.5987660000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.118500</v>
+        <v>1.1185</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.190000</v>
+        <v>1347.19</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.252000</v>
+        <v>-169.25200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>4037.131841</v>
+        <v>4037.1318409999999</v>
       </c>
       <c r="AF9" s="1">
         <v>1.121426</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.820000</v>
+        <v>1359.82</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.984000</v>
+        <v>-178.98400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>4047.602355</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.124334</v>
+        <v>1.1243339999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.277000</v>
+        <v>-209.27699999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>4058.263365</v>
+        <v>4058.2633649999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.127295</v>
+        <v>1.1272949999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.960000</v>
+        <v>1401.96</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.587000</v>
+        <v>-253.58699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>4069.342006</v>
+        <v>4069.3420059999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.130373</v>
+        <v>1.1303730000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.300000</v>
+        <v>1426.3</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>4080.034265</v>
+        <v>4080.0342649999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.133343</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.731000</v>
+        <v>-366.73099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>4090.648650</v>
+        <v>4090.6486500000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.136291</v>
+        <v>1.1362909999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.530000</v>
+        <v>1529.53</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.049000</v>
+        <v>-618.04899999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>4101.451019</v>
+        <v>4101.4510190000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.139292</v>
       </c>
       <c r="BK9" s="1">
-        <v>1681.460000</v>
+        <v>1681.46</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1070.850000</v>
+        <v>-1070.8499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>4112.398718</v>
+        <v>4112.3987180000004</v>
       </c>
       <c r="BO9" s="1">
         <v>1.142333</v>
       </c>
       <c r="BP9" s="1">
-        <v>1972.940000</v>
+        <v>1972.94</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1860.010000</v>
+        <v>-1860.01</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>4122.911919</v>
+        <v>4122.9119190000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.145253</v>
+        <v>1.1452530000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2359.410000</v>
+        <v>2359.41</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2772.660000</v>
+        <v>-2772.66</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>4134.130929</v>
+        <v>4134.1309289999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.148370</v>
+        <v>1.1483699999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2844.880000</v>
+        <v>2844.88</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3777.400000</v>
+        <v>-3777.4</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>4145.756658</v>
+        <v>4145.7566580000002</v>
       </c>
       <c r="CD9" s="1">
         <v>1.151599</v>
       </c>
       <c r="CE9" s="1">
-        <v>4282.310000</v>
+        <v>4282.3100000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6218.510000</v>
+        <v>-6218.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>3974.232148</v>
+        <v>3974.2321480000001</v>
       </c>
       <c r="B10" s="1">
         <v>1.103953</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.467000</v>
+        <v>-306.46699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3984.719590</v>
+        <v>3984.7195900000002</v>
       </c>
       <c r="G10" s="1">
         <v>1.106867</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.930000</v>
+        <v>1269.93</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.385000</v>
+        <v>-264.38499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>3995.153897</v>
+        <v>3995.1538970000001</v>
       </c>
       <c r="L10" s="1">
-        <v>1.109765</v>
+        <v>1.1097649999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.070000</v>
+        <v>1305.07</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.690000</v>
+        <v>-202.69</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4005.618490</v>
+        <v>4005.6184899999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.112672</v>
+        <v>1.1126720000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.910000</v>
+        <v>1316.91</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.408000</v>
+        <v>-184.40799999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>4016.130732</v>
+        <v>4016.1307320000001</v>
       </c>
       <c r="V10" s="1">
-        <v>1.115592</v>
+        <v>1.1155919999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.800000</v>
+        <v>1329.8</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.053000</v>
+        <v>-171.053</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4026.944478</v>
+        <v>4026.9444779999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.118596</v>
+        <v>1.1185959999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.940000</v>
+        <v>1346.94</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.877000</v>
+        <v>-168.87700000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>4037.476033</v>
+        <v>4037.4760329999999</v>
       </c>
       <c r="AF10" s="1">
         <v>1.121521</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.018000</v>
+        <v>-179.018</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4048.301219</v>
+        <v>4048.3012189999999</v>
       </c>
       <c r="AK10" s="1">
         <v>1.124528</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>4058.966694</v>
+        <v>4058.9666940000002</v>
       </c>
       <c r="AP10" s="1">
         <v>1.127491</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.940000</v>
+        <v>1401.94</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.596000</v>
+        <v>-253.596</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>4069.708086</v>
+        <v>4069.7080860000001</v>
       </c>
       <c r="AU10" s="1">
         <v>1.130474</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.320000</v>
+        <v>1426.32</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>4080.415687</v>
+        <v>4080.4156870000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.133449</v>
+        <v>1.1334489999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.480000</v>
+        <v>1445.48</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.730000</v>
+        <v>-366.73</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>4091.009273</v>
+        <v>4091.0092730000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.136391</v>
+        <v>1.1363909999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.520000</v>
+        <v>1529.52</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.047000</v>
+        <v>-618.04700000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>4102.128058</v>
+        <v>4102.1280580000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.139480</v>
+        <v>1.13948</v>
       </c>
       <c r="BK10" s="1">
-        <v>1681.400000</v>
+        <v>1681.4</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1070.870000</v>
+        <v>-1070.8699999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>4112.509357</v>
+        <v>4112.5093569999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.142364</v>
+        <v>1.1423639999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1972.820000</v>
+        <v>1972.82</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1859.880000</v>
+        <v>-1859.88</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>4123.054767</v>
+        <v>4123.0547669999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.145293</v>
+        <v>1.1452929999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2359.750000</v>
+        <v>2359.75</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2772.170000</v>
+        <v>-2772.17</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>4134.549056</v>
+        <v>4134.5490559999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.148486</v>
+        <v>1.1484859999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2845.180000</v>
+        <v>2845.18</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3777.060000</v>
+        <v>-3777.06</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>4146.304738</v>
+        <v>4146.3047379999998</v>
       </c>
       <c r="CD10" s="1">
         <v>1.151751</v>
       </c>
       <c r="CE10" s="1">
-        <v>4274.940000</v>
+        <v>4274.9399999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6204.680000</v>
+        <v>-6204.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>3974.660691</v>
       </c>
       <c r="B11" s="1">
-        <v>1.104072</v>
+        <v>1.1040719999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.200000</v>
+        <v>1244.2</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.455000</v>
+        <v>-306.45499999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3985.007270</v>
+        <v>3985.0072700000001</v>
       </c>
       <c r="G11" s="1">
         <v>1.106946</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.200000</v>
+        <v>1270.2</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.543000</v>
+        <v>-264.54300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>3995.501625</v>
+        <v>3995.5016249999999</v>
       </c>
       <c r="L11" s="1">
-        <v>1.109862</v>
+        <v>1.1098619999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.548000</v>
+        <v>-202.548</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4005.968170</v>
+        <v>4005.9681700000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.112769</v>
+        <v>1.1127689999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.940000</v>
+        <v>1316.94</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.471000</v>
+        <v>-184.471</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>4016.475420</v>
+        <v>4016.4754200000002</v>
       </c>
       <c r="V11" s="1">
         <v>1.115688</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.003000</v>
+        <v>-171.00299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>4027.643002</v>
+        <v>4027.6430019999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.118790</v>
+        <v>1.11879</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.050000</v>
+        <v>-169.05</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>4038.163487</v>
+        <v>4038.1634869999998</v>
       </c>
       <c r="AF11" s="1">
         <v>1.121712</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.870000</v>
+        <v>1359.87</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.014000</v>
+        <v>-179.01400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>4048.648913</v>
@@ -2899,180 +3315,180 @@
         <v>1.124625</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.293000</v>
+        <v>-209.29300000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4059.366963</v>
+        <v>4059.3669629999999</v>
       </c>
       <c r="AP11" s="1">
         <v>1.127602</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.930000</v>
+        <v>1401.93</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.552000</v>
+        <v>-253.55199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>4070.070165</v>
+        <v>4070.0701650000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.130575</v>
+        <v>1.1305750000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.116000</v>
+        <v>-314.11599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>4081.080358</v>
+        <v>4081.0803580000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.133633</v>
+        <v>1.1336329999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.715000</v>
+        <v>-366.71499999999997</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>4091.679338</v>
+        <v>4091.6793379999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.136578</v>
+        <v>1.1365780000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.490000</v>
+        <v>1529.49</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.043000</v>
+        <v>-618.04300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>4102.238204</v>
+        <v>4102.2382040000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.139511</v>
+        <v>1.1395109999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1681.380000</v>
+        <v>1681.38</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1070.810000</v>
+        <v>-1070.81</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>4112.909100</v>
+        <v>4112.9090999999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.142475</v>
+        <v>1.1424749999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1972.950000</v>
+        <v>1972.95</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1859.850000</v>
+        <v>-1859.85</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>4123.462975</v>
+        <v>4123.4629750000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.145406</v>
+        <v>1.1454059999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2360.440000</v>
+        <v>2360.44</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2772.170000</v>
+        <v>-2772.17</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>4134.976608</v>
+        <v>4134.9766079999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.148605</v>
+        <v>1.1486050000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2845.420000</v>
+        <v>2845.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3777.300000</v>
+        <v>-3777.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>4146.834000</v>
+        <v>4146.8339999999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.151898</v>
+        <v>1.1518980000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4287.450000</v>
+        <v>4287.45</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6217.560000</v>
+        <v>-6217.56</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>3974.933492</v>
+        <v>3974.9334920000001</v>
       </c>
       <c r="B12" s="1">
-        <v>1.104148</v>
+        <v>1.1041479999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.591000</v>
+        <v>-306.59100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>3985.352454</v>
+        <v>3985.3524539999999</v>
       </c>
       <c r="G12" s="1">
-        <v>1.107042</v>
+        <v>1.1070420000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.810000</v>
+        <v>1269.81</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.539000</v>
+        <v>-264.53899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>3995.848297</v>
@@ -3081,73 +3497,73 @@
         <v>1.109958</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.890000</v>
+        <v>1304.8900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.506000</v>
+        <v>-202.506</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>4006.319337</v>
+        <v>4006.3193369999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.112866</v>
+        <v>1.1128659999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.451000</v>
+        <v>-184.45099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>4017.160545</v>
+        <v>4017.1605450000002</v>
       </c>
       <c r="V12" s="1">
-        <v>1.115878</v>
+        <v>1.1158779999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.810000</v>
+        <v>1329.81</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.004000</v>
+        <v>-171.00399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>4027.990082</v>
+        <v>4027.9900819999998</v>
       </c>
       <c r="AA12" s="1">
         <v>1.118886</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.950000</v>
+        <v>1346.95</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.074000</v>
+        <v>-169.07400000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>4038.507215</v>
+        <v>4038.5072150000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.121808</v>
+        <v>1.1218079999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.810000</v>
+        <v>1359.81</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.023000</v>
+        <v>-179.023</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>4048.997601</v>
@@ -3156,527 +3572,527 @@
         <v>1.124722</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.280000</v>
+        <v>-209.28</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>4060.054457</v>
+        <v>4060.0544570000002</v>
       </c>
       <c r="AP12" s="1">
         <v>1.127793</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.960000</v>
+        <v>1401.96</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.541000</v>
+        <v>-253.541</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>4070.737780</v>
+        <v>4070.7377799999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.130760</v>
+        <v>1.13076</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.119000</v>
+        <v>-314.11900000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>4081.498960</v>
+        <v>4081.4989599999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.133750</v>
+        <v>1.13375</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.703000</v>
+        <v>-366.70299999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>4092.118793</v>
+        <v>4092.1187930000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.136700</v>
+        <v>1.1367</v>
       </c>
       <c r="BF12" s="1">
-        <v>1529.500000</v>
+        <v>1529.5</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.081000</v>
+        <v>-618.08100000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>4102.602803</v>
+        <v>4102.6028029999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.139612</v>
+        <v>1.1396120000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1681.420000</v>
+        <v>1681.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1070.790000</v>
+        <v>-1070.79</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>4113.331692</v>
+        <v>4113.3316919999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.142592</v>
+        <v>1.1425920000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1973.010000</v>
+        <v>1973.01</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1859.750000</v>
+        <v>-1859.75</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>4124.147949</v>
+        <v>4124.1479490000002</v>
       </c>
       <c r="BT12" s="1">
         <v>1.145597</v>
       </c>
       <c r="BU12" s="1">
-        <v>2360.830000</v>
+        <v>2360.83</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2772.710000</v>
+        <v>-2772.71</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>4135.394239</v>
+        <v>4135.3942390000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.148721</v>
+        <v>1.1487210000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2845.500000</v>
+        <v>2845.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3776.880000</v>
+        <v>-3776.88</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>4147.351792</v>
+        <v>4147.3517920000004</v>
       </c>
       <c r="CD12" s="1">
         <v>1.152042</v>
       </c>
       <c r="CE12" s="1">
-        <v>4290.070000</v>
+        <v>4290.07</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6197.050000</v>
+        <v>-6197.05</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>3975.297704</v>
+        <v>3975.2977040000001</v>
       </c>
       <c r="B13" s="1">
         <v>1.104249</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.470000</v>
+        <v>1244.47</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.411000</v>
+        <v>-306.411</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>3985.700175</v>
+        <v>3985.7001749999999</v>
       </c>
       <c r="G13" s="1">
-        <v>1.107139</v>
+        <v>1.1071390000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.460000</v>
+        <v>1269.46</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.885000</v>
+        <v>-264.88499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>3996.544182</v>
+        <v>3996.5441820000001</v>
       </c>
       <c r="L13" s="1">
-        <v>1.110151</v>
+        <v>1.1101510000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.441000</v>
+        <v>-202.441</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>4007.015253</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.113060</v>
+        <v>1.1130599999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.410000</v>
+        <v>-184.41</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>4017.503130</v>
+        <v>4017.5031300000001</v>
       </c>
       <c r="V13" s="1">
-        <v>1.115973</v>
+        <v>1.1159730000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.810000</v>
+        <v>1329.81</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>4028.340716</v>
+        <v>4028.3407160000002</v>
       </c>
       <c r="AA13" s="1">
         <v>1.118984</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.140000</v>
+        <v>1347.14</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.067000</v>
+        <v>-169.06700000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>4038.850479</v>
+        <v>4038.8504790000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.121903</v>
+        <v>1.1219030000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.820000</v>
+        <v>1359.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.015000</v>
+        <v>-179.01499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4049.652817</v>
+        <v>4049.6528170000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.124904</v>
+        <v>1.1249039999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.277000</v>
+        <v>-209.27699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>4060.455682</v>
+        <v>4060.4556819999998</v>
       </c>
       <c r="AP13" s="1">
         <v>1.127904</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>4071.163316</v>
+        <v>4071.1633160000001</v>
       </c>
       <c r="AU13" s="1">
         <v>1.130879</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.081000</v>
+        <v>-314.08100000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>4081.872934</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.133854</v>
+        <v>1.1338539999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.678000</v>
+        <v>-366.678</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>4092.486327</v>
+        <v>4092.4863270000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.136802</v>
+        <v>1.1368020000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.470000</v>
+        <v>1529.47</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.051000</v>
+        <v>-618.05100000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>4102.976218</v>
+        <v>4102.9762179999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.139716</v>
       </c>
       <c r="BK13" s="1">
-        <v>1681.400000</v>
+        <v>1681.4</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1070.780000</v>
+        <v>-1070.78</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>4113.751968</v>
+        <v>4113.7519679999996</v>
       </c>
       <c r="BO13" s="1">
         <v>1.142709</v>
       </c>
       <c r="BP13" s="1">
-        <v>1972.920000</v>
+        <v>1972.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1859.790000</v>
+        <v>-1859.79</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>4124.626125</v>
+        <v>4124.6261249999998</v>
       </c>
       <c r="BT13" s="1">
         <v>1.145729</v>
       </c>
       <c r="BU13" s="1">
-        <v>2361.340000</v>
+        <v>2361.34</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2772.840000</v>
+        <v>-2772.84</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>4135.841134</v>
+        <v>4135.8411340000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.148845</v>
+        <v>1.1488449999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2845.160000</v>
+        <v>2845.16</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3776.940000</v>
+        <v>-3776.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>4147.892926</v>
+        <v>4147.8929260000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.152192</v>
+        <v>1.1521920000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4272.800000</v>
+        <v>4272.8</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6209.510000</v>
+        <v>-6209.51</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>3975.916067</v>
+        <v>3975.9160670000001</v>
       </c>
       <c r="B14" s="1">
-        <v>1.104421</v>
+        <v>1.1044210000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.170000</v>
+        <v>1244.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.404000</v>
+        <v>-306.404</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>3986.388596</v>
+        <v>3986.3885959999998</v>
       </c>
       <c r="G14" s="1">
-        <v>1.107330</v>
+        <v>1.1073299999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.752000</v>
+        <v>-264.75200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3996.892869</v>
+        <v>3996.8928689999998</v>
       </c>
       <c r="L14" s="1">
-        <v>1.110248</v>
+        <v>1.1102479999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.368000</v>
+        <v>-202.36799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>4007.363416</v>
+        <v>4007.3634160000001</v>
       </c>
       <c r="Q14" s="1">
         <v>1.113157</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.830000</v>
+        <v>1316.83</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.329000</v>
+        <v>-184.32900000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>4017.850331</v>
+        <v>4017.8503310000001</v>
       </c>
       <c r="V14" s="1">
-        <v>1.116070</v>
+        <v>1.1160699999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.991000</v>
+        <v>-170.99100000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>4028.996439</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.119166</v>
+        <v>1.1191660000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.120000</v>
+        <v>1347.12</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.162000</v>
+        <v>-169.16200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>4039.515087</v>
+        <v>4039.5150870000002</v>
       </c>
       <c r="AF14" s="1">
         <v>1.122088</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.003000</v>
+        <v>-179.00299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>4050.032753</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.125009</v>
+        <v>1.1250089999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.265000</v>
+        <v>-209.26499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>4060.830657</v>
@@ -3685,73 +4101,73 @@
         <v>1.128009</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.940000</v>
+        <v>1401.94</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.574000</v>
+        <v>-253.57400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>4071.528867</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.130980</v>
+        <v>1.1309800000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.350000</v>
+        <v>1426.35</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.097000</v>
+        <v>-314.09699999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>4082.252869</v>
+        <v>4082.2528689999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.133959</v>
+        <v>1.1339589999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.460000</v>
+        <v>1445.46</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.725000</v>
+        <v>-366.72500000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>4092.842455</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.136901</v>
+        <v>1.1369009999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.520000</v>
+        <v>1529.52</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.983000</v>
+        <v>-617.98299999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>4103.391867</v>
+        <v>4103.3918670000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.139831</v>
       </c>
       <c r="BK14" s="1">
-        <v>1681.390000</v>
+        <v>1681.39</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1070.830000</v>
+        <v>-1070.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>4114.148107</v>
@@ -3760,43 +4176,43 @@
         <v>1.142819</v>
       </c>
       <c r="BP14" s="1">
-        <v>1972.740000</v>
+        <v>1972.74</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1859.690000</v>
+        <v>-1859.69</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>4125.039298</v>
+        <v>4125.0392979999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.145844</v>
+        <v>1.1458440000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2361.520000</v>
+        <v>2361.52</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2773.350000</v>
+        <v>-2773.35</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>4136.263725</v>
+        <v>4136.2637249999998</v>
       </c>
       <c r="BY14" s="1">
         <v>1.148962</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2845.520000</v>
+        <v>2845.52</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3777.470000</v>
+        <v>-3777.47</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>4148.430617</v>
@@ -3805,165 +4221,165 @@
         <v>1.152342</v>
       </c>
       <c r="CE14" s="1">
-        <v>4298.320000</v>
+        <v>4298.32</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6202.850000</v>
+        <v>-6202.85</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>3976.321794</v>
       </c>
       <c r="B15" s="1">
-        <v>1.104534</v>
+        <v>1.1045339999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.520000</v>
+        <v>1244.52</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.436000</v>
+        <v>-306.43599999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3986.735795</v>
+        <v>3986.7357950000001</v>
       </c>
       <c r="G15" s="1">
-        <v>1.107427</v>
+        <v>1.1074269999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.564000</v>
+        <v>-264.56400000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3997.237589</v>
+        <v>3997.2375889999998</v>
       </c>
       <c r="L15" s="1">
         <v>1.110344</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.686000</v>
+        <v>-202.68600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>4007.712142</v>
+        <v>4007.7121419999999</v>
       </c>
       <c r="Q15" s="1">
         <v>1.113253</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.360000</v>
+        <v>-184.36</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>4018.508025</v>
+        <v>4018.5080250000001</v>
       </c>
       <c r="V15" s="1">
         <v>1.116252</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.830000</v>
+        <v>1329.83</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.095000</v>
+        <v>-171.095</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>4029.384300</v>
+        <v>4029.3843000000002</v>
       </c>
       <c r="AA15" s="1">
         <v>1.119273</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.070000</v>
+        <v>1347.07</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.096000</v>
+        <v>-169.096</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>4039.879678</v>
+        <v>4039.8796779999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.122189</v>
+        <v>1.1221890000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.770000</v>
+        <v>1359.77</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.987000</v>
+        <v>-178.98699999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>4050.387888</v>
+        <v>4050.3878880000002</v>
       </c>
       <c r="AK15" s="1">
         <v>1.125108</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.276000</v>
+        <v>-209.27600000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>4061.187777</v>
+        <v>4061.1877770000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.128108</v>
+        <v>1.1281080000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.960000</v>
+        <v>1401.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.549000</v>
+        <v>-253.54900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>4071.892931</v>
+        <v>4071.8929309999999</v>
       </c>
       <c r="AU15" s="1">
         <v>1.131081</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.099000</v>
+        <v>-314.09899999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>4082.668021</v>
@@ -3972,709 +4388,709 @@
         <v>1.134074</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.460000</v>
+        <v>1445.46</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.710000</v>
+        <v>-366.71</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>4093.566614</v>
+        <v>4093.5666139999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.137102</v>
+        <v>1.1371020000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.530000</v>
+        <v>1529.53</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.014000</v>
+        <v>-618.01400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>4103.725178</v>
+        <v>4103.7251779999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.139924</v>
+        <v>1.1399239999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1681.390000</v>
+        <v>1681.39</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1070.770000</v>
+        <v>-1070.77</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>4114.546394</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.142930</v>
+        <v>1.14293</v>
       </c>
       <c r="BP15" s="1">
-        <v>1972.700000</v>
+        <v>1972.7</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1859.600000</v>
+        <v>-1859.6</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>4125.469331</v>
+        <v>4125.4693310000002</v>
       </c>
       <c r="BT15" s="1">
         <v>1.145964</v>
       </c>
       <c r="BU15" s="1">
-        <v>2361.640000</v>
+        <v>2361.64</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2773.740000</v>
+        <v>-2773.74</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>4136.688301</v>
+        <v>4136.6883010000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.149080</v>
+        <v>1.1490800000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2845.260000</v>
+        <v>2845.26</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3777.270000</v>
+        <v>-3777.27</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>4148.971229</v>
+        <v>4148.9712289999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.152492</v>
+        <v>1.1524920000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4277.580000</v>
+        <v>4277.58</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6196.900000</v>
+        <v>-6196.9</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>3976.672505</v>
       </c>
       <c r="B16" s="1">
-        <v>1.104631</v>
+        <v>1.1046309999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.190000</v>
+        <v>1244.19</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.382000</v>
+        <v>-306.38200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>3987.078067</v>
+        <v>3987.0780669999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.107522</v>
+        <v>1.1075219999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.610000</v>
+        <v>1269.6099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.771000</v>
+        <v>-264.77100000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>3997.893796</v>
+        <v>3997.8937959999998</v>
       </c>
       <c r="L16" s="1">
-        <v>1.110526</v>
+        <v>1.1105259999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.680000</v>
+        <v>1304.68</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.468000</v>
+        <v>-202.46799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>4008.367852</v>
+        <v>4008.3678519999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.113436</v>
+        <v>1.1134360000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.860000</v>
+        <v>1316.86</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.437000</v>
+        <v>-184.43700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>4018.886969</v>
+        <v>4018.8869690000001</v>
       </c>
       <c r="V16" s="1">
         <v>1.116357</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.740000</v>
+        <v>1329.74</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.004000</v>
+        <v>-171.00399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>4029.733978</v>
+        <v>4029.7339780000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.119371</v>
+        <v>1.1193709999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.930000</v>
+        <v>1346.93</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.217000</v>
+        <v>-169.21700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>4040.224861</v>
+        <v>4040.2248610000001</v>
       </c>
       <c r="AF16" s="1">
         <v>1.122285</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.033000</v>
+        <v>-179.03299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>4050.742559</v>
+        <v>4050.7425589999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.125206</v>
+        <v>1.1252059999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.241000</v>
+        <v>-209.24100000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>4061.603425</v>
+        <v>4061.6034249999998</v>
       </c>
       <c r="AP16" s="1">
         <v>1.128223</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.980000</v>
+        <v>1401.98</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.546000</v>
+        <v>-253.54599999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>4072.294226</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.131193</v>
+        <v>1.1311929999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.310000</v>
+        <v>1426.31</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.104000</v>
+        <v>-314.10399999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>4082.973062</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.134159</v>
+        <v>1.1341589999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.460000</v>
+        <v>1445.46</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.717000</v>
+        <v>-366.71699999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>4093.953728</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.137209</v>
+        <v>1.1372089999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.480000</v>
+        <v>1529.48</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.010000</v>
+        <v>-618.01</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>4104.102695</v>
+        <v>4104.1026949999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>1.140029</v>
       </c>
       <c r="BK16" s="1">
-        <v>1681.390000</v>
+        <v>1681.39</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1070.710000</v>
+        <v>-1070.71</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>4114.969018</v>
+        <v>4114.9690179999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.143047</v>
+        <v>1.1430469999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1972.890000</v>
+        <v>1972.89</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1859.810000</v>
+        <v>-1859.81</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>4125.927100</v>
+        <v>4125.9270999999999</v>
       </c>
       <c r="BT16" s="1">
         <v>1.146091</v>
       </c>
       <c r="BU16" s="1">
-        <v>2361.840000</v>
+        <v>2361.84</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2774.210000</v>
+        <v>-2774.21</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>4137.133212</v>
+        <v>4137.1332119999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.149204</v>
+        <v>1.1492039999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2846.120000</v>
+        <v>2846.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3776.340000</v>
+        <v>-3776.34</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>4149.513885</v>
+        <v>4149.5138850000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.152643</v>
+        <v>1.1526430000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4286.480000</v>
+        <v>4286.4799999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6215.410000</v>
+        <v>-6215.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>3977.319249</v>
+        <v>3977.3192490000001</v>
       </c>
       <c r="B17" s="1">
         <v>1.104811</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.672000</v>
+        <v>-306.67200000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3987.726839</v>
+        <v>3987.7268389999999</v>
       </c>
       <c r="G17" s="1">
         <v>1.107702</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.160000</v>
+        <v>1270.1600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.633000</v>
+        <v>-264.63299999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>3998.274724</v>
+        <v>3998.2747239999999</v>
       </c>
       <c r="L17" s="1">
-        <v>1.110632</v>
+        <v>1.1106320000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.467000</v>
+        <v>-202.46700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>4008.756679</v>
+        <v>4008.7566790000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.113544</v>
+        <v>1.1135440000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.511000</v>
+        <v>-184.511</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>4019.231728</v>
+        <v>4019.2317280000002</v>
       </c>
       <c r="V17" s="1">
-        <v>1.116453</v>
+        <v>1.1164529999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.790000</v>
+        <v>1329.79</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.952000</v>
+        <v>-170.952</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>4030.082665</v>
+        <v>4030.0826649999999</v>
       </c>
       <c r="AA17" s="1">
         <v>1.119467</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.980000</v>
+        <v>1346.98</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.021000</v>
+        <v>-169.02099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>4040.572060</v>
+        <v>4040.57206</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.122381</v>
+        <v>1.1223810000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.032000</v>
+        <v>-179.03200000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>4051.162142</v>
+        <v>4051.1621420000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.125323</v>
+        <v>1.1253230000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.244000</v>
+        <v>-209.244</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>4061.908960</v>
+        <v>4061.9089600000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.128308</v>
+        <v>1.1283080000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>4072.623043</v>
+        <v>4072.6230430000001</v>
       </c>
       <c r="AU17" s="1">
         <v>1.131284</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.310000</v>
+        <v>1426.31</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.099000</v>
+        <v>-314.09899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>4083.330181</v>
+        <v>4083.3301809999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>1.134258</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.720000</v>
+        <v>-366.72</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>4094.316069</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.137310</v>
+        <v>1.13731</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.510000</v>
+        <v>1529.51</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.003000</v>
+        <v>-618.00300000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>4104.502937</v>
+        <v>4104.5029370000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.140140</v>
+        <v>1.1401399999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1681.410000</v>
+        <v>1681.41</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1070.750000</v>
+        <v>-1070.75</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>4115.383145</v>
+        <v>4115.3831449999998</v>
       </c>
       <c r="BO17" s="1">
         <v>1.143162</v>
       </c>
       <c r="BP17" s="1">
-        <v>1972.940000</v>
+        <v>1972.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1859.620000</v>
+        <v>-1859.62</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>4126.725691</v>
+        <v>4126.7256909999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.146313</v>
+        <v>1.1463129999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2361.900000</v>
+        <v>2361.9</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2774.850000</v>
+        <v>-2774.85</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>4137.566432</v>
+        <v>4137.5664319999996</v>
       </c>
       <c r="BY17" s="1">
         <v>1.149324</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2845.620000</v>
+        <v>2845.62</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3776.150000</v>
+        <v>-3776.15</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>4150.052507</v>
+        <v>4150.0525070000003</v>
       </c>
       <c r="CD17" s="1">
         <v>1.152792</v>
       </c>
       <c r="CE17" s="1">
-        <v>4291.020000</v>
+        <v>4291.0200000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6196.900000</v>
+        <v>-6196.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>3977.695215</v>
+        <v>3977.6952150000002</v>
       </c>
       <c r="B18" s="1">
-        <v>1.104915</v>
+        <v>1.1049150000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.494000</v>
+        <v>-306.49400000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3988.112193</v>
+        <v>3988.1121929999999</v>
       </c>
       <c r="G18" s="1">
         <v>1.107809</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.820000</v>
+        <v>1269.82</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.786000</v>
+        <v>-264.786</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3998.617983</v>
+        <v>3998.6179830000001</v>
       </c>
       <c r="L18" s="1">
         <v>1.110727</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.833000</v>
+        <v>-202.833</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>4009.108342</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.113641</v>
+        <v>1.1136410000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.449000</v>
+        <v>-184.44900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>4019.577011</v>
+        <v>4019.5770109999999</v>
       </c>
       <c r="V18" s="1">
         <v>1.116549</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.830000</v>
+        <v>1329.83</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>4030.495865</v>
+        <v>4030.4958649999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.119582</v>
+        <v>1.1195820000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.960000</v>
+        <v>1346.96</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.055000</v>
+        <v>-169.05500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>4040.982747</v>
@@ -4683,180 +5099,180 @@
         <v>1.122495</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.010000</v>
+        <v>-179.01</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>4051.449821</v>
+        <v>4051.4498210000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.125403</v>
+        <v>1.1254029999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.380000</v>
+        <v>1380.38</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.280000</v>
+        <v>-209.28</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>4062.268559</v>
+        <v>4062.2685590000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.128408</v>
+        <v>1.1284080000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>4072.988097</v>
+        <v>4072.9880969999999</v>
       </c>
       <c r="AU18" s="1">
         <v>1.131386</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.290000</v>
+        <v>1426.29</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.052000</v>
+        <v>-314.05200000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>4083.688820</v>
+        <v>4083.6888199999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.134358</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.725000</v>
+        <v>-366.72500000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>4095.038741</v>
+        <v>4095.0387409999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.137511</v>
+        <v>1.1375109999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.450000</v>
+        <v>1529.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.075000</v>
+        <v>-618.07500000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>4105.251863</v>
+        <v>4105.2518630000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.140348</v>
+        <v>1.1403479999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1681.410000</v>
+        <v>1681.41</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1070.750000</v>
+        <v>-1070.75</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>4115.785898</v>
+        <v>4115.7858980000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.143274</v>
+        <v>1.1432739999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1972.920000</v>
+        <v>1972.92</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1859.610000</v>
+        <v>-1859.61</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>4127.157701</v>
+        <v>4127.1577010000001</v>
       </c>
       <c r="BT18" s="1">
         <v>1.146433</v>
       </c>
       <c r="BU18" s="1">
-        <v>2361.800000</v>
+        <v>2361.8000000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2775.040000</v>
+        <v>-2775.04</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>4137.988811</v>
+        <v>4137.9888110000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.149441</v>
+        <v>1.1494409999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2844.810000</v>
+        <v>2844.81</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3776.390000</v>
+        <v>-3776.39</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>4150.902186</v>
+        <v>4150.9021860000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.153028</v>
+        <v>1.1530279999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4289.690000</v>
+        <v>4289.6899999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6213.510000</v>
+        <v>-6213.51</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>3978.041455</v>
       </c>
       <c r="B19" s="1">
-        <v>1.105012</v>
+        <v>1.1050120000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.210000</v>
+        <v>1244.21</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.325000</v>
+        <v>-306.32499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>3988.454929</v>
@@ -4865,43 +5281,43 @@
         <v>1.107904</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.780000</v>
+        <v>1269.78</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.666000</v>
+        <v>-264.666</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3998.968627</v>
+        <v>3998.9686270000002</v>
       </c>
       <c r="L19" s="1">
         <v>1.110825</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.639000</v>
+        <v>-202.63900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>4009.680231</v>
+        <v>4009.6802309999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.113800</v>
+        <v>1.1137999999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.850000</v>
+        <v>1316.85</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.358000</v>
+        <v>-184.358</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>4019.993579</v>
@@ -4910,13 +5326,13 @@
         <v>1.116665</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.992000</v>
+        <v>-170.99199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>4030.780041</v>
@@ -4925,13 +5341,13 @@
         <v>1.119661</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.940000</v>
+        <v>1346.94</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.135000</v>
+        <v>-169.13499999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>4041.272907</v>
@@ -4940,103 +5356,103 @@
         <v>1.122576</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.054000</v>
+        <v>-179.054</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>4051.797549</v>
+        <v>4051.7975489999999</v>
       </c>
       <c r="AK19" s="1">
         <v>1.125499</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.273000</v>
+        <v>-209.273</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>4062.629647</v>
+        <v>4062.6296470000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.128508</v>
+        <v>1.1285080000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>4073.350674</v>
+        <v>4073.3506739999998</v>
       </c>
       <c r="AU19" s="1">
         <v>1.131486</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.300000</v>
+        <v>1426.3</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.096000</v>
+        <v>-314.096</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>4084.405506</v>
+        <v>4084.4055060000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>1.134557</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.490000</v>
+        <v>1445.49</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.695000</v>
+        <v>-366.69499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>4095.426611</v>
+        <v>4095.4266109999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.137619</v>
+        <v>1.1376189999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1529.530000</v>
+        <v>1529.53</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.014000</v>
+        <v>-618.01400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>4105.654154</v>
+        <v>4105.6541539999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.140459</v>
+        <v>1.1404589999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1681.420000</v>
+        <v>1681.42</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1070.690000</v>
+        <v>-1070.69</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>4116.181208</v>
@@ -5045,13 +5461,13 @@
         <v>1.143384</v>
       </c>
       <c r="BP19" s="1">
-        <v>1972.780000</v>
+        <v>1972.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1859.520000</v>
+        <v>-1859.52</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>4127.878393</v>
@@ -5060,422 +5476,422 @@
         <v>1.146633</v>
       </c>
       <c r="BU19" s="1">
-        <v>2361.600000</v>
+        <v>2361.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2775.610000</v>
+        <v>-2775.61</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>4138.720908</v>
+        <v>4138.7209080000002</v>
       </c>
       <c r="BY19" s="1">
         <v>1.149645</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2845.640000</v>
+        <v>2845.64</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3776.460000</v>
+        <v>-3776.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>4151.131306</v>
+        <v>4151.1313060000002</v>
       </c>
       <c r="CD19" s="1">
         <v>1.153092</v>
       </c>
       <c r="CE19" s="1">
-        <v>4288.100000</v>
+        <v>4288.1000000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6215.660000</v>
+        <v>-6215.66</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>3978.384190</v>
+        <v>3978.3841900000002</v>
       </c>
       <c r="B20" s="1">
-        <v>1.105107</v>
+        <v>1.1051070000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.468000</v>
+        <v>-306.46800000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>3988.800144</v>
+        <v>3988.8001439999998</v>
       </c>
       <c r="G20" s="1">
-        <v>1.108000</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.390000</v>
+        <v>1269.3900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.901000</v>
+        <v>-264.90100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>3999.380835</v>
+        <v>3999.3808349999999</v>
       </c>
       <c r="L20" s="1">
-        <v>1.110939</v>
+        <v>1.1109389999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.840000</v>
+        <v>1304.8399999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.659000</v>
+        <v>-202.65899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4009.794309</v>
+        <v>4009.7943089999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.113832</v>
+        <v>1.1138319999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.930000</v>
+        <v>1316.93</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.396000</v>
+        <v>-184.39599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4020.274279</v>
+        <v>4020.2742790000002</v>
       </c>
       <c r="V20" s="1">
         <v>1.116743</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.760000</v>
+        <v>1329.76</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.922000</v>
+        <v>-170.922</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4031.130250</v>
+        <v>4031.1302500000002</v>
       </c>
       <c r="AA20" s="1">
         <v>1.119758</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.990000</v>
+        <v>1346.99</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.067000</v>
+        <v>-169.06700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>4041.613163</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.122670</v>
+        <v>1.1226700000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.018000</v>
+        <v>-179.018</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>4052.147229</v>
+        <v>4052.1472290000002</v>
       </c>
       <c r="AK20" s="1">
         <v>1.125596</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.262000</v>
+        <v>-209.262</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>4063.349838</v>
+        <v>4063.3498380000001</v>
       </c>
       <c r="AP20" s="1">
         <v>1.128708</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.518000</v>
+        <v>-253.518</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>4074.081808</v>
+        <v>4074.0818079999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.131689</v>
+        <v>1.1316889999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>4084.764611</v>
+        <v>4084.7646110000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>1.134657</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.728000</v>
+        <v>-366.72800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>4095.792163</v>
+        <v>4095.7921630000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.137720</v>
+        <v>1.1377200000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.500000</v>
+        <v>1529.5</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.954000</v>
+        <v>-617.95399999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>4106.030087</v>
+        <v>4106.0300870000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.140564</v>
+        <v>1.1405639999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1681.360000</v>
+        <v>1681.36</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1070.740000</v>
+        <v>-1070.74</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>4116.912840</v>
+        <v>4116.91284</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.143587</v>
+        <v>1.1435869999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1972.750000</v>
+        <v>1972.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1859.500000</v>
+        <v>-1859.5</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>4128.001864</v>
+        <v>4128.0018639999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.146667</v>
+        <v>1.1466670000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2361.170000</v>
+        <v>2361.17</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2775.860000</v>
+        <v>-2775.86</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>4138.836970</v>
+        <v>4138.8369700000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.149677</v>
+        <v>1.1496770000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2844.790000</v>
+        <v>2844.79</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3776.640000</v>
+        <v>-3776.64</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>4151.652603</v>
+        <v>4151.6526030000005</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.153237</v>
+        <v>1.1532370000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4294.270000</v>
+        <v>4294.2700000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6198.500000</v>
+        <v>-6198.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>3978.805293</v>
+        <v>3978.8052929999999</v>
       </c>
       <c r="B21" s="1">
         <v>1.105224</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.552000</v>
+        <v>-306.55200000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>3989.217810</v>
+        <v>3989.2178100000001</v>
       </c>
       <c r="G21" s="1">
-        <v>1.108116</v>
+        <v>1.1081160000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.605000</v>
+        <v>-264.60500000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>3999.670002</v>
+        <v>3999.6700019999998</v>
       </c>
       <c r="L21" s="1">
         <v>1.111019</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.750000</v>
+        <v>1304.75</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.283000</v>
+        <v>-202.28299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4010.152452</v>
+        <v>4010.1524519999998</v>
       </c>
       <c r="Q21" s="1">
         <v>1.113931</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.920000</v>
+        <v>1316.92</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.429000</v>
+        <v>-184.429</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>4020.618998</v>
+        <v>4020.6189979999999</v>
       </c>
       <c r="V21" s="1">
-        <v>1.116839</v>
+        <v>1.1168389999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.027000</v>
+        <v>-171.02699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>4031.476920</v>
+        <v>4031.4769200000001</v>
       </c>
       <c r="AA21" s="1">
         <v>1.119855</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.990000</v>
+        <v>1346.99</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.113000</v>
+        <v>-169.113</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>4041.960858</v>
+        <v>4041.9608579999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.122767</v>
+        <v>1.1227670000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.810000</v>
+        <v>1359.81</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.984000</v>
+        <v>-178.98400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>4052.842128</v>
+        <v>4052.8421279999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.125789</v>
+        <v>1.1257889999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.293000</v>
+        <v>-209.29300000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>4063.740687</v>
@@ -5484,58 +5900,58 @@
         <v>1.128817</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.555000</v>
+        <v>-253.55500000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>4074.473615</v>
+        <v>4074.4736149999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.131798</v>
+        <v>1.1317980000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.300000</v>
+        <v>1426.3</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.084000</v>
+        <v>-314.084</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>4085.123250</v>
+        <v>4085.1232500000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.134756</v>
+        <v>1.1347560000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.717000</v>
+        <v>-366.71699999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>4096.459282</v>
+        <v>4096.4592819999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.137905</v>
+        <v>1.1379049999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.500000</v>
+        <v>1529.5</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.976000</v>
+        <v>-617.976</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>4106.717044</v>
@@ -5544,333 +5960,333 @@
         <v>1.140755</v>
       </c>
       <c r="BK21" s="1">
-        <v>1681.370000</v>
+        <v>1681.37</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1070.710000</v>
+        <v>-1070.71</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>4117.028871</v>
+        <v>4117.0288710000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.143619</v>
+        <v>1.1436189999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1972.690000</v>
+        <v>1972.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1859.580000</v>
+        <v>-1859.58</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>4128.440824</v>
+        <v>4128.4408240000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.146789</v>
+        <v>1.1467890000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2360.840000</v>
+        <v>2360.84</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2776.240000</v>
+        <v>-2776.24</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>4139.283865</v>
+        <v>4139.2838650000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.149801</v>
+        <v>1.1498010000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2846.050000</v>
+        <v>2846.05</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3776.650000</v>
+        <v>-3776.65</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>4152.168442</v>
+        <v>4152.1684420000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.153380</v>
+        <v>1.1533800000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4276.000000</v>
+        <v>4276</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6195.620000</v>
+        <v>-6195.62</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>3979.086493</v>
+        <v>3979.0864929999998</v>
       </c>
       <c r="B22" s="1">
         <v>1.105302</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.490000</v>
+        <v>1244.49</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.380000</v>
+        <v>-306.38</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>3989.499045</v>
       </c>
       <c r="G22" s="1">
-        <v>1.108194</v>
+        <v>1.1081939999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.900000</v>
+        <v>1269.9000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.211000</v>
+        <v>-264.21100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>4000.014226</v>
+        <v>4000.0142259999998</v>
       </c>
       <c r="L22" s="1">
-        <v>1.111115</v>
+        <v>1.1111150000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.367000</v>
+        <v>-202.36699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>4010.502100</v>
+        <v>4010.5021000000002</v>
       </c>
       <c r="Q22" s="1">
         <v>1.114028</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.800000</v>
+        <v>1316.8</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.469000</v>
+        <v>-184.46899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>4020.960742</v>
+        <v>4020.9607420000002</v>
       </c>
       <c r="V22" s="1">
-        <v>1.116934</v>
+        <v>1.1169340000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.072000</v>
+        <v>-171.072</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>4032.173335</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.120048</v>
+        <v>1.1200479999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.126000</v>
+        <v>-169.126</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>4042.647818</v>
+        <v>4042.6478179999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.122958</v>
+        <v>1.1229579999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.850000</v>
+        <v>1359.85</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.974000</v>
+        <v>-178.97399999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>4053.192800</v>
+        <v>4053.1927999999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.125887</v>
+        <v>1.1258870000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.247000</v>
+        <v>-209.24700000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>4064.099821</v>
+        <v>4064.0998209999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.128917</v>
+        <v>1.1289169999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.940000</v>
+        <v>1401.94</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.554000</v>
+        <v>-253.554</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>4074.852063</v>
+        <v>4074.8520629999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.131903</v>
+        <v>1.1319030000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.290000</v>
+        <v>1426.29</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.080000</v>
+        <v>-314.08</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>4085.783394</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.134940</v>
+        <v>1.1349400000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.480000</v>
+        <v>1445.48</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.695000</v>
+        <v>-366.69499999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>4096.875426</v>
+        <v>4096.8754259999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.138021</v>
+        <v>1.1380209999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.490000</v>
+        <v>1529.49</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.930000</v>
+        <v>-617.92999999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>4106.825172</v>
+        <v>4106.8251719999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.140785</v>
+        <v>1.1407849999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1681.390000</v>
+        <v>1681.39</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1070.690000</v>
+        <v>-1070.69</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>4117.425175</v>
+        <v>4117.4251750000003</v>
       </c>
       <c r="BO22" s="1">
         <v>1.143729</v>
       </c>
       <c r="BP22" s="1">
-        <v>1972.800000</v>
+        <v>1972.8</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1859.490000</v>
+        <v>-1859.49</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>4128.865400</v>
+        <v>4128.8653999999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.146907</v>
+        <v>1.1469069999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2359.910000</v>
+        <v>2359.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2775.960000</v>
+        <v>-2775.96</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>4139.717401</v>
+        <v>4139.7174009999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.149922</v>
+        <v>1.1499220000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2845.190000</v>
+        <v>2845.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3775.900000</v>
+        <v>-3775.9</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>4152.689240</v>
+        <v>4152.6892399999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.153525</v>
+        <v>1.1535249999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4277.760000</v>
+        <v>4277.76</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6214.850000</v>
+        <v>-6214.85</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>3979.425757</v>
       </c>
@@ -5878,43 +6294,43 @@
         <v>1.105396</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.550000</v>
+        <v>1244.55</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.714000</v>
+        <v>-306.714</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>3989.841743</v>
       </c>
       <c r="G23" s="1">
-        <v>1.108289</v>
+        <v>1.1082890000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.458000</v>
+        <v>-264.45800000000003</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>4000.363873</v>
+        <v>4000.3638729999998</v>
       </c>
       <c r="L23" s="1">
-        <v>1.111212</v>
+        <v>1.1112120000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.371000</v>
+        <v>-202.37100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>4011.199971</v>
@@ -5923,330 +6339,330 @@
         <v>1.114222</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.358000</v>
+        <v>-184.358</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>4021.647205</v>
+        <v>4021.6472050000002</v>
       </c>
       <c r="V23" s="1">
         <v>1.117124</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.992000</v>
+        <v>-170.99199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>4032.521991</v>
+        <v>4032.5219910000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.120145</v>
+        <v>1.1201449999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.950000</v>
+        <v>1346.95</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.919000</v>
+        <v>-168.91900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>4042.993530</v>
+        <v>4042.9935300000002</v>
       </c>
       <c r="AF23" s="1">
         <v>1.123054</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.860000</v>
+        <v>1359.86</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.000000</v>
+        <v>-179</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4053.540518</v>
+        <v>4053.5405179999998</v>
       </c>
       <c r="AK23" s="1">
         <v>1.125983</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.267000</v>
+        <v>-209.267</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>4064.759005</v>
+        <v>4064.7590049999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.129100</v>
+        <v>1.1291</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.548000</v>
+        <v>-253.548</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>4075.513231</v>
+        <v>4075.5132309999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.132087</v>
+        <v>1.1320870000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>4086.201024</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.135056</v>
+        <v>1.1350560000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.705000</v>
+        <v>-366.70499999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>4097.254369</v>
+        <v>4097.2543690000002</v>
       </c>
       <c r="BE23" s="1">
         <v>1.138126</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.480000</v>
+        <v>1529.48</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.964000</v>
+        <v>-617.96400000000006</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>4107.178852</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.140883</v>
+        <v>1.1408830000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1681.380000</v>
+        <v>1681.38</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1070.650000</v>
+        <v>-1070.6500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>4117.848790</v>
+        <v>4117.84879</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.143847</v>
+        <v>1.1438470000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1972.840000</v>
+        <v>1972.84</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1859.440000</v>
+        <v>-1859.44</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>4129.278600</v>
+        <v>4129.2785999999996</v>
       </c>
       <c r="BT23" s="1">
         <v>1.147022</v>
       </c>
       <c r="BU23" s="1">
-        <v>2359.710000</v>
+        <v>2359.71</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2776.410000</v>
+        <v>-2776.41</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>4140.138505</v>
+        <v>4140.1385049999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.150038</v>
+        <v>1.1500379999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2844.950000</v>
+        <v>2844.95</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3776.180000</v>
+        <v>-3776.18</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>4153.205079</v>
+        <v>4153.2050790000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.153668</v>
+        <v>1.1536679999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4272.310000</v>
+        <v>4272.3100000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6205.340000</v>
+        <v>-6205.34</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>3979.769485</v>
+        <v>3979.7694849999998</v>
       </c>
       <c r="B24" s="1">
-        <v>1.105492</v>
+        <v>1.1054919999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.553000</v>
+        <v>-306.553</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>3990.191424</v>
+        <v>3990.1914240000001</v>
       </c>
       <c r="G24" s="1">
         <v>1.108387</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.490000</v>
+        <v>1269.49</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.948000</v>
+        <v>-264.94799999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>4001.053810</v>
+        <v>4001.0538099999999</v>
       </c>
       <c r="L24" s="1">
-        <v>1.111404</v>
+        <v>1.1114040000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.317000</v>
+        <v>-202.31700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>4011.548195</v>
+        <v>4011.5481949999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.114319</v>
+        <v>1.1143190000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.381000</v>
+        <v>-184.381</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>4021.991924</v>
+        <v>4021.9919239999999</v>
       </c>
       <c r="V24" s="1">
-        <v>1.117220</v>
+        <v>1.1172200000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.077000</v>
+        <v>-171.077</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>4032.871175</v>
+        <v>4032.8711750000002</v>
       </c>
       <c r="AA24" s="1">
         <v>1.120242</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.900000</v>
+        <v>1346.9</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.089000</v>
+        <v>-169.089</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>4043.637336</v>
+        <v>4043.6373359999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.123233</v>
+        <v>1.1232329999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.031000</v>
+        <v>-179.03100000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>4054.194715</v>
+        <v>4054.1947150000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.126165</v>
+        <v>1.1261650000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.380000</v>
+        <v>1380.38</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.255000</v>
+        <v>-209.255</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>4065.205868</v>
@@ -6255,649 +6671,650 @@
         <v>1.129224</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>4075.928381</v>
+        <v>4075.9283810000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.132202</v>
+        <v>1.1322019999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.320000</v>
+        <v>1426.32</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.091000</v>
+        <v>-314.09100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>4086.584467</v>
+        <v>4086.5844670000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.135162</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.708000</v>
+        <v>-366.70800000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>4097.613516</v>
+        <v>4097.6135160000003</v>
       </c>
       <c r="BE24" s="1">
         <v>1.138226</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.530000</v>
+        <v>1529.53</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.997000</v>
+        <v>-617.99699999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>4107.558261</v>
+        <v>4107.5582610000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.140988</v>
+        <v>1.1409879999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1681.320000</v>
+        <v>1681.32</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1070.650000</v>
+        <v>-1070.6500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>4118.279318</v>
+        <v>4118.2793179999999</v>
       </c>
       <c r="BO24" s="1">
         <v>1.143966</v>
       </c>
       <c r="BP24" s="1">
-        <v>1972.880000</v>
+        <v>1972.88</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1859.420000</v>
+        <v>-1859.42</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>4129.711078</v>
+        <v>4129.7110780000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.147142</v>
+        <v>1.1471420000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2359.290000</v>
+        <v>2359.29</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2776.480000</v>
+        <v>-2776.48</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>4140.559113</v>
+        <v>4140.5591130000003</v>
       </c>
       <c r="BY24" s="1">
         <v>1.150155</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2845.090000</v>
+        <v>2845.09</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3775.790000</v>
+        <v>-3775.79</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>4153.758615</v>
+        <v>4153.7586149999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.153822</v>
+        <v>1.1538219999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4277.420000</v>
+        <v>4277.42</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6193.710000</v>
+        <v>-6193.71</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>3980.453963</v>
+        <v>3980.4539629999999</v>
       </c>
       <c r="B25" s="1">
-        <v>1.105682</v>
+        <v>1.1056820000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.120000</v>
+        <v>1244.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.309000</v>
+        <v>-306.30900000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3990.883342</v>
+        <v>3990.8833420000001</v>
       </c>
       <c r="G25" s="1">
         <v>1.108579</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.410000</v>
+        <v>1269.4100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.719000</v>
+        <v>-264.71899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>4001.402991</v>
+        <v>4001.4029909999999</v>
       </c>
       <c r="L25" s="1">
-        <v>1.111501</v>
+        <v>1.1115010000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.293000</v>
+        <v>-202.29300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>4011.897346</v>
+        <v>4011.8973460000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.114416</v>
+        <v>1.1144160000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.357000</v>
+        <v>-184.357</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>4022.335156</v>
+        <v>4022.3351560000001</v>
       </c>
       <c r="V25" s="1">
-        <v>1.117315</v>
+        <v>1.1173150000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.680000</v>
+        <v>1329.68</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.940000</v>
+        <v>-170.94</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>4033.523941</v>
+        <v>4033.5239409999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.120423</v>
+        <v>1.1204229999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.840000</v>
+        <v>1346.84</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.956000</v>
+        <v>-168.95599999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>4044.022728</v>
+        <v>4044.0227279999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.123340</v>
+        <v>1.12334</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.810000</v>
+        <v>1359.81</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.020000</v>
+        <v>-179.02</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4054.585072</v>
+        <v>4054.5850719999999</v>
       </c>
       <c r="AK25" s="1">
         <v>1.126274</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.258000</v>
+        <v>-209.25800000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>4065.566459</v>
+        <v>4065.5664590000001</v>
       </c>
       <c r="AP25" s="1">
         <v>1.129324</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.930000</v>
+        <v>1401.93</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.522000</v>
+        <v>-253.52199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>4076.313773</v>
+        <v>4076.3137729999999</v>
       </c>
       <c r="AU25" s="1">
         <v>1.132309</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.076000</v>
+        <v>-314.07600000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>4086.945518</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.135263</v>
+        <v>1.1352629999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.460000</v>
+        <v>1445.46</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.673000</v>
+        <v>-366.673</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>4098.038545</v>
+        <v>4098.0385450000003</v>
       </c>
       <c r="BE25" s="1">
         <v>1.138344</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.510000</v>
+        <v>1529.51</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.943000</v>
+        <v>-617.94299999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>4107.976882</v>
+        <v>4107.9768819999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>1.141105</v>
       </c>
       <c r="BK25" s="1">
-        <v>1681.370000</v>
+        <v>1681.37</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1070.610000</v>
+        <v>-1070.6099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>4118.664709</v>
+        <v>4118.6647089999997</v>
       </c>
       <c r="BO25" s="1">
         <v>1.144074</v>
       </c>
       <c r="BP25" s="1">
-        <v>1972.790000</v>
+        <v>1972.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1859.410000</v>
+        <v>-1859.41</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>4130.142101</v>
+        <v>4130.1421010000004</v>
       </c>
       <c r="BT25" s="1">
         <v>1.147262</v>
       </c>
       <c r="BU25" s="1">
-        <v>2358.790000</v>
+        <v>2358.79</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2776.180000</v>
+        <v>-2776.18</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>4141.013447</v>
+        <v>4141.0134470000003</v>
       </c>
       <c r="BY25" s="1">
         <v>1.150282</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2845.410000</v>
+        <v>2845.41</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3775.750000</v>
+        <v>-3775.75</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>4154.288375</v>
+        <v>4154.2883750000001</v>
       </c>
       <c r="CD25" s="1">
         <v>1.153969</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.320000</v>
+        <v>4275.32</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6212.790000</v>
+        <v>-6212.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>3980.796203</v>
+        <v>3980.7962029999999</v>
       </c>
       <c r="B26" s="1">
         <v>1.105777</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.610000</v>
+        <v>-306.61</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>3991.231533</v>
+        <v>3991.2315330000001</v>
       </c>
       <c r="G26" s="1">
-        <v>1.108675</v>
+        <v>1.1086750000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.400000</v>
+        <v>1269.4000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.638000</v>
+        <v>-264.63799999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>4001.747215</v>
+        <v>4001.7472149999999</v>
       </c>
       <c r="L26" s="1">
         <v>1.111596</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.290000</v>
+        <v>-202.29</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4012.546113</v>
+        <v>4012.5461129999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.114596</v>
+        <v>1.1145959999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.880000</v>
+        <v>1316.88</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.392000</v>
+        <v>-184.392</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>4022.986403</v>
+        <v>4022.9864029999999</v>
       </c>
       <c r="V26" s="1">
         <v>1.117496</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.830000</v>
+        <v>1329.83</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.079000</v>
+        <v>-171.07900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>4033.913270</v>
+        <v>4033.91327</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.120531</v>
+        <v>1.1205309999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.060000</v>
+        <v>1347.06</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.124000</v>
+        <v>-169.124</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>4044.365960</v>
+        <v>4044.3659600000001</v>
       </c>
       <c r="AF26" s="1">
         <v>1.123435</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.810000</v>
+        <v>1359.81</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.960000</v>
+        <v>-178.96</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4054.930772</v>
+        <v>4054.9307720000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.126370</v>
+        <v>1.1263700000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.264000</v>
+        <v>-209.26400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>4065.927580</v>
+        <v>4065.92758</v>
       </c>
       <c r="AP26" s="1">
         <v>1.129424</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.558000</v>
+        <v>-253.55799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>4076.733388</v>
+        <v>4076.7333880000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.132426</v>
+        <v>1.1324259999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.290000</v>
+        <v>1426.29</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.069000</v>
+        <v>-314.06900000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>4087.363646</v>
+        <v>4087.3636459999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.135379</v>
+        <v>1.1353789999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.672000</v>
+        <v>-366.67200000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>4098.335183</v>
+        <v>4098.3351830000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.138426</v>
+        <v>1.1384259999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.470000</v>
+        <v>1529.47</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.971000</v>
+        <v>-617.971</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>4108.317138</v>
+        <v>4108.3171380000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.141199</v>
+        <v>1.1411990000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1681.390000</v>
+        <v>1681.39</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1070.650000</v>
+        <v>-1070.6500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>4119.064948</v>
+        <v>4119.0649480000002</v>
       </c>
       <c r="BO26" s="1">
         <v>1.144185</v>
       </c>
       <c r="BP26" s="1">
-        <v>1972.750000</v>
+        <v>1972.75</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1859.390000</v>
+        <v>-1859.39</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>4130.554277</v>
+        <v>4130.5542770000002</v>
       </c>
       <c r="BT26" s="1">
         <v>1.147376</v>
       </c>
       <c r="BU26" s="1">
-        <v>2358.210000</v>
+        <v>2358.21</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2775.990000</v>
+        <v>-2775.99</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>4141.459816</v>
+        <v>4141.4598159999996</v>
       </c>
       <c r="BY26" s="1">
         <v>1.150406</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2844.640000</v>
+        <v>2844.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3776.220000</v>
+        <v>-3776.22</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>4154.805173</v>
+        <v>4154.8051729999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.154113</v>
+        <v>1.1541129999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4292.280000</v>
+        <v>4292.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6212.920000</v>
+        <v>-6212.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>